--- a/jobs_data.xlsx
+++ b/jobs_data.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="job offers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -79,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +256,261 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>job_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>html_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Automation Developer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pracovní nabídka
+ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
+Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
+Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
+Co budeme potřebovat:
+Analytické myšlení a proaktivní přístup
+Dobrou spolupráci jak remote, tak v kanceláři
+SELECT * FROM zaklady_SQL;
+Pokročilou znalost Excelu
+Aktivní komunikaci v AJ alespoň na úrovni B1
+Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
+Bude super, když budeš mít:
+Mírně pokročilou znalost nějakého programovacího jazyka
+Zkušenost s aktivním používáním AI
+Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
+Co budeš u nás dělat:
+Vytvářet jednoduché automatizační nástroje pro kolegy
+Podílet se na složitějších řešeních, které budou používat celá oddělení
+Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
+Udržovat, opravovat a vylepšovat stávající řešení
+Používat ChatGPT, Copiloty a Git na denní bázi
+Časem ovládat spoustu daňových a účetních výrazů 😊
+def a_hodne():
+try:
+print(testovat)
+except NameError:
+print("testovat!")
+S čím budeš pracovat:
+Naše současné řešení jsou ve VBA, Power Automate a Pythonu
+Pro robotizace používáme RPA Power Automate Desktop
+Prostředí - Windows
+Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
+Co ti nabídneme:
+Flexibilní pracovní dobu
+Velmi zajímavé platové ohodnocení
+Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
+Profesní růst a odborné vzdělávání
+Zajímavé platové ohodnocení + pravidelné bonusy
+Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
+Flexibilní pracovní dobu, možnost práce z domova
+Občerstvení na pracovišti každý den</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/jobs_data.xlsx
+++ b/jobs_data.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,79 +422,48 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
-          <t>job_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>html_text</t>
+          <t>Vývojář/Analytik Databáze/SQL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>Automation Developer</t>
+          <t>Pracovní nabídka
+Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru.
+Předmětem Vaší práce bude:
+- Vývoj backendu logistického informačního systému – platforma PL/SQL
+- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti
+- Nasazení implementace do produkčního systému
+- Provádění integračních a akceptačních testů
+Požadujeme:
+- Práce na plný úvazek, přechodně možno i na částečný
+- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …)
+- Aktivní přístup při řešení projektů
+- Vysokoškolské vzdělání technického směru
+- Zodpovědnost a smysl pro práci v týmu
+Nabízíme:
+- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit
+- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy
+- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna
+- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií
+- Možnost krátkodobých služebních cest do zahraničí
+- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)
+- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook
+- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)
+Nástup je možný ihned nebo dle dohody.
+Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650
+Velmi se těšíme se na spolupráci s Vámi.
+SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>Pracovní nabídka
-ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
-Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
-Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
-Co budeme potřebovat:
-Analytické myšlení a proaktivní přístup
-Dobrou spolupráci jak remote, tak v kanceláři
-SELECT * FROM zaklady_SQL;
-Pokročilou znalost Excelu
-Aktivní komunikaci v AJ alespoň na úrovni B1
-Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
-Bude super, když budeš mít:
-Mírně pokročilou znalost nějakého programovacího jazyka
-Zkušenost s aktivním používáním AI
-Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
-Co budeš u nás dělat:
-Vytvářet jednoduché automatizační nástroje pro kolegy
-Podílet se na složitějších řešeních, které budou používat celá oddělení
-Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
-Udržovat, opravovat a vylepšovat stávající řešení
-Používat ChatGPT, Copiloty a Git na denní bázi
-Časem ovládat spoustu daňových a účetních výrazů 😊
-def a_hodne():
-try:
-print(testovat)
-except NameError:
-print("testovat!")
-S čím budeš pracovat:
-Naše současné řešení jsou ve VBA, Power Automate a Pythonu
-Pro robotizace používáme RPA Power Automate Desktop
-Prostředí - Windows
-Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
-Co ti nabídneme:
-Flexibilní pracovní dobu
-Velmi zajímavé platové ohodnocení
-Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
-Profesní růst a odborné vzdělávání
-Zajímavé platové ohodnocení + pravidelné bonusy
-Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
-Flexibilní pracovní dobu, možnost práce z domova
-Občerstvení na pracovišti každý den</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru. &lt;br&gt; &lt;br&gt;Předmětem Vaší práce bude: &lt;br&gt; &lt;br&gt;- Vývoj backendu logistického informačního systému – platforma PL/SQL &lt;br&gt;&lt;/br&gt;- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti&lt;br&gt;&lt;/br&gt;- Nasazení implementace do produkčního systému &lt;br&gt;&lt;/br&gt; - Provádění integračních a akceptačních testů&lt;br&gt;&lt;/br&gt;&lt;br&gt;&lt;/br&gt;Požadujeme: &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;- Práce na plný úvazek, přechodně možno i na částečný &lt;br&gt;&lt;/br&gt;- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …) &lt;br&gt;&lt;/br&gt;- Aktivní přístup při řešení projektů &lt;br&gt;&lt;/br&gt;- Vysokoškolské vzdělání technického směru &lt;br&gt;&lt;/br&gt;- Zodpovědnost a smysl pro práci v týmu &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;Nabízíme:&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/p&gt;&lt;p&gt;- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit&lt;br&gt;&lt;/br&gt;- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy&lt;br&gt;&lt;/br&gt;- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna&lt;br&gt;&lt;/br&gt;- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií&lt;br&gt;&lt;/br&gt;- Možnost krátkodobých služebních cest do zahraničí&lt;br&gt;&lt;/br&gt;- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)&lt;br&gt;&lt;/br&gt;- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook&lt;br&gt;&lt;/br&gt;- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)&lt;/p&gt;&lt;p&gt;Nástup je možný ihned nebo dle dohody.&lt;/p&gt;&lt;p&gt;Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650&lt;/p&gt;&lt;p&gt;Velmi se těšíme se na spolupráci s Vámi.&lt;/p&gt;&lt;p&gt;SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013&lt;/p&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>

--- a/jobs_data.xlsx
+++ b/jobs_data.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,48 +434,443 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Vývojář/Analytik Databáze/SQL</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>job_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>address_street</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>address_city</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>address_district</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>responsible_name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>first_number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>second_number</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>matching_words</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>html_text</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Automation Developer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ASB Czech Republic, s.r.o.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>V celnici 1031/4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nové Město</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Pracovní nabídka
-Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru.
-Předmětem Vaší práce bude:
-- Vývoj backendu logistického informačního systému – platforma PL/SQL
-- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti
-- Nasazení implementace do produkčního systému
-- Provádění integračních a akceptačních testů
-Požadujeme:
-- Práce na plný úvazek, přechodně možno i na částečný
-- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …)
-- Aktivní přístup při řešení projektů
-- Vysokoškolské vzdělání technického směru
-- Zodpovědnost a smysl pro práci v týmu
-Nabízíme:
-- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit
-- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy
-- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna
-- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií
-- Možnost krátkodobých služebních cest do zahraničí
-- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)
-- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook
-- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)
-Nástup je možný ihned nebo dle dohody.
-Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650
-Velmi se těšíme se na spolupráci s Vámi.
-SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013</t>
+ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
+Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
+Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
+Co budeme potřebovat:
+Analytické myšlení a proaktivní přístup
+Dobrou spolupráci jak remote, tak v kanceláři
+SELECT * FROM zaklady_SQL;
+Pokročilou znalost Excelu
+Aktivní komunikaci v AJ alespoň na úrovni B1
+Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
+Bude super, když budeš mít:
+Mírně pokročilou znalost nějakého programovacího jazyka
+Zkušenost s aktivním používáním AI
+Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
+Co budeš u nás dělat:
+Vytvářet jednoduché automatizační nástroje pro kolegy
+Podílet se na složitějších řešeních, které budou používat celá oddělení
+Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
+Udržovat, opravovat a vylepšovat stávající řešení
+Používat ChatGPT, Copiloty a Git na denní bázi
+Časem ovládat spoustu daňových a účetních výrazů 😊
+def a_hodne():
+try:
+print(testovat)
+except NameError:
+print("testovat!")
+S čím budeš pracovat:
+Naše současné řešení jsou ve VBA, Power Automate a Pythonu
+Pro robotizace používáme RPA Power Automate Desktop
+Prostředí - Windows
+Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
+Co ti nabídneme:
+Flexibilní pracovní dobu
+Velmi zajímavé platové ohodnocení
+Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
+Profesní růst a odborné vzdělávání
+Zajímavé platové ohodnocení + pravidelné bonusy
+Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
+Flexibilní pracovní dobu, možnost práce z domova
+Občerstvení na pracovišti každý den</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Petra Hořejší</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>224 931 366</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru. &lt;br&gt; &lt;br&gt;Předmětem Vaší práce bude: &lt;br&gt; &lt;br&gt;- Vývoj backendu logistického informačního systému – platforma PL/SQL &lt;br&gt;&lt;/br&gt;- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti&lt;br&gt;&lt;/br&gt;- Nasazení implementace do produkčního systému &lt;br&gt;&lt;/br&gt; - Provádění integračních a akceptačních testů&lt;br&gt;&lt;/br&gt;&lt;br&gt;&lt;/br&gt;Požadujeme: &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;- Práce na plný úvazek, přechodně možno i na částečný &lt;br&gt;&lt;/br&gt;- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …) &lt;br&gt;&lt;/br&gt;- Aktivní přístup při řešení projektů &lt;br&gt;&lt;/br&gt;- Vysokoškolské vzdělání technického směru &lt;br&gt;&lt;/br&gt;- Zodpovědnost a smysl pro práci v týmu &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;Nabízíme:&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/p&gt;&lt;p&gt;- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit&lt;br&gt;&lt;/br&gt;- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy&lt;br&gt;&lt;/br&gt;- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna&lt;br&gt;&lt;/br&gt;- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií&lt;br&gt;&lt;/br&gt;- Možnost krátkodobých služebních cest do zahraničí&lt;br&gt;&lt;/br&gt;- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)&lt;br&gt;&lt;/br&gt;- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook&lt;br&gt;&lt;/br&gt;- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)&lt;/p&gt;&lt;p&gt;Nástup je možný ihned nebo dle dohody.&lt;/p&gt;&lt;p&gt;Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650&lt;/p&gt;&lt;p&gt;Velmi se těšíme se na spolupráci s Vámi.&lt;/p&gt;&lt;p&gt;SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013&lt;/p&gt;&lt;/div&gt;</t>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Automation Developer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ASB Czech Republic, s.r.o.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>V celnici 1031/4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nové Město</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pracovní nabídka
+ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
+Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
+Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
+Co budeme potřebovat:
+Analytické myšlení a proaktivní přístup
+Dobrou spolupráci jak remote, tak v kanceláři
+SELECT * FROM zaklady_SQL;
+Pokročilou znalost Excelu
+Aktivní komunikaci v AJ alespoň na úrovni B1
+Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
+Bude super, když budeš mít:
+Mírně pokročilou znalost nějakého programovacího jazyka
+Zkušenost s aktivním používáním AI
+Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
+Co budeš u nás dělat:
+Vytvářet jednoduché automatizační nástroje pro kolegy
+Podílet se na složitějších řešeních, které budou používat celá oddělení
+Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
+Udržovat, opravovat a vylepšovat stávající řešení
+Používat ChatGPT, Copiloty a Git na denní bázi
+Časem ovládat spoustu daňových a účetních výrazů 😊
+def a_hodne():
+try:
+print(testovat)
+except NameError:
+print("testovat!")
+S čím budeš pracovat:
+Naše současné řešení jsou ve VBA, Power Automate a Pythonu
+Pro robotizace používáme RPA Power Automate Desktop
+Prostředí - Windows
+Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
+Co ti nabídneme:
+Flexibilní pracovní dobu
+Velmi zajímavé platové ohodnocení
+Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
+Profesní růst a odborné vzdělávání
+Zajímavé platové ohodnocení + pravidelné bonusy
+Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
+Flexibilní pracovní dobu, možnost práce z domova
+Občerstvení na pracovišti každý den</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Petra Hořejší</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>224 931 366</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Automation Developer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ASB Czech Republic, s.r.o.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>V celnici 1031/4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nové Město</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pracovní nabídka
+ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
+Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
+Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
+Co budeme potřebovat:
+Analytické myšlení a proaktivní přístup
+Dobrou spolupráci jak remote, tak v kanceláři
+SELECT * FROM zaklady_SQL;
+Pokročilou znalost Excelu
+Aktivní komunikaci v AJ alespoň na úrovni B1
+Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
+Bude super, když budeš mít:
+Mírně pokročilou znalost nějakého programovacího jazyka
+Zkušenost s aktivním používáním AI
+Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
+Co budeš u nás dělat:
+Vytvářet jednoduché automatizační nástroje pro kolegy
+Podílet se na složitějších řešeních, které budou používat celá oddělení
+Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
+Udržovat, opravovat a vylepšovat stávající řešení
+Používat ChatGPT, Copiloty a Git na denní bázi
+Časem ovládat spoustu daňových a účetních výrazů 😊
+def a_hodne():
+try:
+print(testovat)
+except NameError:
+print("testovat!")
+S čím budeš pracovat:
+Naše současné řešení jsou ve VBA, Power Automate a Pythonu
+Pro robotizace používáme RPA Power Automate Desktop
+Prostředí - Windows
+Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
+Co ti nabídneme:
+Flexibilní pracovní dobu
+Velmi zajímavé platové ohodnocení
+Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
+Profesní růst a odborné vzdělávání
+Zajímavé platové ohodnocení + pravidelné bonusy
+Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
+Flexibilní pracovní dobu, možnost práce z domova
+Občerstvení na pracovišti každý den</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petra Hořejší</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>224 931 366</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Automation Developer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASB Czech Republic, s.r.o.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>V celnici 1031/4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nové Město</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pracovní nabídka
+ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.
+Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?
+Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.
+Co budeme potřebovat:
+Analytické myšlení a proaktivní přístup
+Dobrou spolupráci jak remote, tak v kanceláři
+SELECT * FROM zaklady_SQL;
+Pokročilou znalost Excelu
+Aktivní komunikaci v AJ alespoň na úrovni B1
+Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)
+Bude super, když budeš mít:
+Mírně pokročilou znalost nějakého programovacího jazyka
+Zkušenost s aktivním používáním AI
+Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API
+Co budeš u nás dělat:
+Vytvářet jednoduché automatizační nástroje pro kolegy
+Podílet se na složitějších řešeních, které budou používat celá oddělení
+Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci
+Udržovat, opravovat a vylepšovat stávající řešení
+Používat ChatGPT, Copiloty a Git na denní bázi
+Časem ovládat spoustu daňových a účetních výrazů 😊
+def a_hodne():
+try:
+print(testovat)
+except NameError:
+print("testovat!")
+S čím budeš pracovat:
+Naše současné řešení jsou ve VBA, Power Automate a Pythonu
+Pro robotizace používáme RPA Power Automate Desktop
+Prostředí - Windows
+Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi
+Co ti nabídneme:
+Flexibilní pracovní dobu
+Velmi zajímavé platové ohodnocení
+Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy
+Profesní růst a odborné vzdělávání
+Zajímavé platové ohodnocení + pravidelné bonusy
+Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)
+Flexibilní pracovní dobu, možnost práce z domova
+Občerstvení na pracovišti každý den</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Petra Hořejší</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>224 931 366</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;&lt;strong&gt;ASB Group je profesionální outsourcingová společnost poskytující služby nadstandardní úrovně v oblasti zakládání společností, účetnictví, reportingu, daňového poradenství, trust managementu a mzdové agendy. Vznikla v roce 2002 a na pobočkách v Praze, Varšavě, Bratislavě, Budapešti a také Toruni zaměstnává přes 400 lidí. ASB Czech Republic s.r.o. právě rozšiřuje řady automatizačního týmu. Hledáme novou posilu s drivem a autentickým zájmem o automatizace, optimalizace, zlepšování procesů. Hledáme talentovaného nadšence, který se nebojí velkých výzev.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Baví tě hledat způsoby jak dělat věci efektivněji? Jsi schopný/á vést s nadšením konverzaci o technologiích od rána do večera? Změnila ti ChatGPT aspoň trochu život?&lt;/p&gt;&lt;p&gt;Nechceš si to v práci jen odsedět, ale investovat do toho něco sám/a za sebe? Už jsi někdy použil/a pozdrav „Hello, World!"? Hledáme juniorního kolegu do automatizačního týmu. Ve spolupráci s týmovým kolegou budeš mít stále dost velkou odpovědnost a tvoje rozhodnutí budou udávat dlouhodobý směr automatizace v naší firmě. Zároveň ale budeš mít vždy na koho se obrátit a kdo tě v případě potřeby povede.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Co budeme potřebovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Analytické myšlení a proaktivní přístup&lt;/li&gt;&lt;li&gt;Dobrou spolupráci jak remote, tak v kanceláři&lt;/li&gt;&lt;li&gt;SELECT * FROM zaklady_SQL;&lt;/li&gt;&lt;li&gt;Pokročilou znalost Excelu&lt;/li&gt;&lt;li&gt;Aktivní komunikaci v AJ alespoň na úrovni B1&lt;/li&gt;&lt;li&gt;Schopnost naučit se nové technologie (jazyk, platforma, ERP, AI nástroj)&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Bude super, když budeš mít:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mírně pokročilou znalost nějakého programovacího jazyka&lt;/li&gt;&lt;li&gt;Zkušenost s aktivním používáním AI&lt;/li&gt;&lt;li&gt;Jakékoliv zkušenosti s MS Power platformou, testováním aplikací, RPA nebo API&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co budeš u nás dělat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Vytvářet jednoduché automatizační nástroje pro kolegy&lt;/li&gt;&lt;li&gt;Podílet se na složitějších řešeních, které budou používat celá oddělení&lt;/li&gt;&lt;li&gt;Spolupracovat a hledat možnosti jak může AI a jiné technologie ulehčit naši práci&lt;/li&gt;&lt;li&gt;Udržovat, opravovat a vylepšovat stávající řešení&lt;/li&gt;&lt;li&gt;Používat ChatGPT, Copiloty a Git na denní bázi&lt;/li&gt;&lt;li&gt;Časem ovládat spoustu daňových a účetních výrazů 😊&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;def a_hodne():&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; try:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print(testovat)&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; except NameError:&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt; print("testovat!")&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;S čím budeš pracovat:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Naše současné řešení jsou ve VBA, Power Automate a Pythonu&lt;/li&gt;&lt;li&gt;Pro robotizace používáme RPA Power Automate Desktop&lt;/li&gt;&lt;li&gt;Prostředí - Windows&lt;/li&gt;&lt;li&gt;Hodně pracujeme s Excelovskými tabulkami, XML soubory, účetním systémem Helios a databázemi&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;Co ti nabídneme:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Flexibilní pracovní dobu&lt;/li&gt;&lt;li&gt;Velmi zajímavé platové ohodnocení&lt;/li&gt;&lt;li&gt;Mladý dynamický kolektiv příjemné pracovní prostředí v centru Prahy&lt;/li&gt;&lt;li&gt;Profesní růst a odborné vzdělávání&lt;/li&gt;&lt;li&gt;Zajímavé platové ohodnocení + pravidelné bonusy&lt;/li&gt;&lt;li&gt;Zaměstnanecké benefity (dovolená navíc, stravenkový paušál, systém cafeterie - individuální čerpání benefitů, jazykové a odborné vzdělávání, pravidelné teambuildingy)&lt;/li&gt;&lt;li&gt;Flexibilní pracovní dobu, možnost práce z domova&lt;/li&gt;&lt;li&gt;Občerstvení na pracovišti každý den&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>

--- a/jobs_data.xlsx
+++ b/jobs_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +1198,94 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vývojář/Analytik Databáze/SQL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SEACOMP s.r.o.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brandlova 253/4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Brno</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Brno-město</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pracovní nabídka
+Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru.
+Předmětem Vaší práce bude:
+- Vývoj backendu logistického informačního systému – platforma PL/SQL
+- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti
+- Nasazení implementace do produkčního systému
+- Provádění integračních a akceptačních testů
+Požadujeme:
+- Práce na plný úvazek, přechodně možno i na částečný
+- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …)
+- Aktivní přístup při řešení projektů
+- Vysokoškolské vzdělání technického směru
+- Zodpovědnost a smysl pro práci v týmu
+Nabízíme:
+- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit
+- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy
+- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna
+- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií
+- Možnost krátkodobých služebních cest do zahraničí
+- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)
+- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook
+- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)
+Nástup je možný ihned nebo dle dohody.
+Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650
+Velmi se těšíme se na spolupráci s Vámi.
+SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>David Bryša</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>539 030 661</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['PL/SQL', 'SQL', 'ORACLE', 'I-SQL', 'warehouse', 'T-SQL']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>&lt;div&gt;&lt;p&gt;Pracovní nabídka&lt;/p&gt;&lt;p&gt;Staňte se součástí logistické divize SEACOMP vyvíjející rozsáhlé robotizované logistické informační systémy. Podílíme se na implementaci a managementu produkčních systémů o velikosti až 120.000 m2 v rámci celého evropského prostoru. &lt;br&gt; &lt;br&gt;Předmětem Vaší práce bude: &lt;br&gt; &lt;br&gt;- Vývoj backendu logistického informačního systému – platforma PL/SQL &lt;br&gt;&lt;/br&gt;- Návrh a implementace změn ve warehouse procesech s důrazem na zvyšování výkonnosti&lt;br&gt;&lt;/br&gt;- Nasazení implementace do produkčního systému &lt;br&gt;&lt;/br&gt; - Provádění integračních a akceptačních testů&lt;br&gt;&lt;/br&gt;&lt;br&gt;&lt;/br&gt;Požadujeme: &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;- Práce na plný úvazek, přechodně možno i na částečný &lt;br&gt;&lt;/br&gt;- Znalost programování relačních databází (ORACLE není podmínkou): SQL nebo některý ze strukturovaných jazyků (I-SQL, T-SQL, PL/SQL, …) &lt;br&gt;&lt;/br&gt;- Aktivní přístup při řešení projektů &lt;br&gt;&lt;/br&gt;- Vysokoškolské vzdělání technického směru &lt;br&gt;&lt;/br&gt;- Zodpovědnost a smysl pro práci v týmu &lt;br&gt;&lt;/br&gt; &lt;br&gt;&lt;/br&gt;Nabízíme:&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/br&gt;&lt;/p&gt;&lt;p&gt;- Nadstandardní platové ohodnocení – nechte si vypracovat individuální nabídku, talenty umíme ocenit&lt;br&gt;&lt;/br&gt;- Pružná pracovní doba – máme řešení pro ranní ptáčata i večerní sovy&lt;br&gt;&lt;/br&gt;- Přátelské a kolegiální pracovní prostředí ve zcela nové polyfunkční budově v naprostém centru Brna&lt;br&gt;&lt;/br&gt;- Odborné školení, možnost seznámit se s širokým spektrem aktuálních vývojových technologií&lt;br&gt;&lt;/br&gt;- Možnost krátkodobých služebních cest do zahraničí&lt;br&gt;&lt;/br&gt;- Možnost využít firemní chill-out zónu přímo na pracovišti (fotbálek, ergonometr, rotoped, grill bar, aj.)&lt;br&gt;&lt;/br&gt;- Penzijní připojištění, příspěvky na stravování, mobilní telefon, notebook&lt;br&gt;&lt;/br&gt;- Široká škála mimofiremních aktivit (dračí lodě, cyklovýlety, lyžování, sportovní turnaje, …)&lt;/p&gt;&lt;p&gt;Nástup je možný ihned nebo dle dohody.&lt;/p&gt;&lt;p&gt;Pokud máte o tuto pozici zájem, pošlete prosím Váš strukturovaný životopis na e-mail jobs(a)seacomp.cz nebo nás kontaktuje telefonicky na tel. čísle + 420 608 736 650&lt;/p&gt;&lt;p&gt;Velmi se těšíme se na spolupráci s Vámi.&lt;/p&gt;&lt;p&gt;SEACOMP S.R.O., BRANDLOVA 4, 602 00 BRNO, DRŽITEL CERTIFIKACE ISO 9001:2015 ISO 14001:2015 ISO 27001:2013&lt;/p&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6e0a5f83-1728-4956-bdf4-ce37760cd214}" enabled="0" method="" siteId="{6e0a5f83-1728-4956-bdf4-ce37760cd214}" removed="1"/>
+</clbl:labelList>
 </file>